--- a/10.09更新_CMDB_修改任务.xlsx
+++ b/10.09更新_CMDB_修改任务.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
   <si>
     <r>
       <rPr>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t xml:space="preserve">合同管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">templates/../contractManage.html+相应views函数</t>
   </si>
   <si>
     <t xml:space="preserve">供应商管理</t>
@@ -637,7 +640,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1180,21 +1183,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
+    <row r="23" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
@@ -1203,12 +1210,12 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1223,17 +1230,17 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>15</v>
@@ -1245,17 +1252,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="5"/>
@@ -1265,17 +1272,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>15</v>
@@ -1287,25 +1294,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>27</v>
-      </c>
       <c r="B29" s="0" t="s">
         <v>1</v>
       </c>

--- a/10.09更新_CMDB_修改任务.xlsx
+++ b/10.09更新_CMDB_修改任务.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <r>
       <rPr>
@@ -259,12 +259,18 @@
     <t xml:space="preserve">编辑单位页</t>
   </si>
   <si>
+    <t xml:space="preserve">templates/../editOrg.html+相应views函数</t>
+  </si>
+  <si>
     <t xml:space="preserve">机房管理</t>
   </si>
   <si>
     <t xml:space="preserve">编辑功能</t>
   </si>
   <si>
+    <t xml:space="preserve">templates/../editCab.html+相应views函数</t>
+  </si>
+  <si>
     <t xml:space="preserve">类似资产主表的编辑</t>
   </si>
   <si>
@@ -323,6 +329,15 @@
   </si>
   <si>
     <t xml:space="preserve">手动 OR 捣鼓个导入导出，再说</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">装饰器传用户信息</t>
   </si>
 </sst>
 </file>
@@ -332,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -392,12 +407,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -516,32 +525,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -637,10 +646,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -766,7 +775,7 @@
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -881,48 +890,48 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -973,8 +982,8 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="5"/>
@@ -982,64 +991,64 @@
       <c r="D14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
+      <c r="I14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="I15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="8"/>
+      <c r="I16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -1113,12 +1122,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1130,38 +1139,46 @@
       <c r="F20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="H20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
+      <c r="J20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="11"/>
+      <c r="G21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -1170,55 +1187,55 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+    <row r="23" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+    <row r="24" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="D24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1230,17 +1247,17 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>15</v>
@@ -1252,17 +1269,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="5"/>
@@ -1272,17 +1289,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>15</v>
@@ -1294,17 +1311,17 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="5"/>
@@ -1314,9 +1331,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/10.09更新_CMDB_修改任务.xlsx
+++ b/10.09更新_CMDB_修改任务.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <r>
       <rPr>
@@ -339,6 +339,83 @@
   <si>
     <t xml:space="preserve">装饰器传用户信息</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">getElementById</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">'deleteForm'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7A7A43"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">();</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -408,8 +485,35 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="9"/>
+      <color rgb="FF660E7A"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7A7A43"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,12 +530,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7DEE8"/>
         <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -496,7 +594,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -525,6 +623,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -533,6 +639,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,32 +651,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -595,12 +689,12 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF7A7A43"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FF660E7A"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFB7DEE8"/>
@@ -646,10 +740,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -836,29 +930,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -890,27 +986,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+    <row r="10" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -982,8 +1078,8 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="5"/>
@@ -991,64 +1087,66 @@
       <c r="D14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="J15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -1122,30 +1220,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+    <row r="20" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -1167,7 +1265,7 @@
       <c r="F21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>68</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -1191,7 +1289,7 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H22" s="5"/>
@@ -1211,7 +1309,7 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H23" s="5"/>
@@ -1231,7 +1329,7 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H24" s="5"/>
@@ -1240,29 +1338,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+    <row r="25" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14" t="s">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="14"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
@@ -1281,7 +1379,7 @@
       <c r="H26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1301,7 +1399,7 @@
       <c r="H27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="5"/>
@@ -1323,7 +1421,7 @@
       <c r="H28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1346,7 +1444,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="22">

--- a/10.09更新_CMDB_修改任务.xlsx
+++ b/10.09更新_CMDB_修改任务.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -87,10 +87,16 @@
     <t xml:space="preserve">UI、前端</t>
   </si>
   <si>
+    <t xml:space="preserve">templates/../login.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">轮播图片加登录框</t>
   </si>
   <si>
     <t xml:space="preserve">刘奕辰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">√</t>
   </si>
   <si>
     <t xml:space="preserve">修改密码</t>
@@ -130,9 +136,6 @@
     <t xml:space="preserve">类似基础数据里面子表的管理</t>
   </si>
   <si>
-    <t xml:space="preserve">√</t>
-  </si>
-  <si>
     <t xml:space="preserve">基础页右上角显示</t>
   </si>
   <si>
@@ -301,6 +304,9 @@
     <t xml:space="preserve">功能设计、UI、前端、后台</t>
   </si>
   <si>
+    <t xml:space="preserve">editVendor, editModel,vendorManage,modelManage</t>
+  </si>
+  <si>
     <t xml:space="preserve">想想吧</t>
   </si>
   <si>
@@ -338,83 +344,6 @@
   </si>
   <si>
     <t xml:space="preserve">装饰器传用户信息</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="9"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">document</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7A7A43"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">getElementById</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">'deleteForm'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7A7A43"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">();</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -424,7 +353,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -485,46 +414,13 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="9"/>
-      <color rgb="FF660E7A"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7A7A43"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -534,8 +430,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,7 +490,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,15 +515,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -635,22 +535,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -659,8 +547,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -689,12 +577,12 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF7A7A43"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660E7A"/>
+      <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFB7DEE8"/>
@@ -716,7 +604,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -740,10 +628,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -753,7 +641,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="46.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="55.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.63"/>
@@ -821,22 +709,26 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
@@ -846,13 +738,15 @@
         <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
@@ -860,7 +754,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
@@ -870,16 +764,16 @@
         <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -888,26 +782,26 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -915,10 +809,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -927,33 +821,33 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>18</v>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -962,51 +856,51 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -1016,137 +910,139 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="10" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="6"/>
+      <c r="G12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="10" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="G13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="F14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>15</v>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -1155,25 +1051,25 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1184,22 +1080,22 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1209,7 +1105,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1217,37 +1113,37 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1257,25 +1153,25 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1285,17 +1181,17 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1305,17 +1201,17 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1325,61 +1221,65 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12" t="s">
+      <c r="F25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="12"/>
+      <c r="G25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="I26" s="12"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1387,20 +1287,20 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="5"/>
     </row>
@@ -1409,46 +1309,48 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="I28" s="13"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C29" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="22">

--- a/10.09更新_CMDB_修改任务.xlsx
+++ b/10.09更新_CMDB_修改任务.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
   <si>
     <r>
       <rPr>
@@ -184,6 +184,9 @@
     <t xml:space="preserve">数据库、前端</t>
   </si>
   <si>
+    <t xml:space="preserve">models/add.html/edit.html/addMore.html/addServer.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">required/blank=true</t>
   </si>
   <si>
@@ -229,6 +232,9 @@
     <t xml:space="preserve">数据库</t>
   </si>
   <si>
+    <t xml:space="preserve">cmdb/models.py</t>
+  </si>
+  <si>
     <t xml:space="preserve">models里</t>
   </si>
   <si>
@@ -337,13 +343,31 @@
     <t xml:space="preserve">手动 OR 捣鼓个导入导出，再说</t>
   </si>
   <si>
+    <t xml:space="preserve">icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唯一性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip输入框</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日期选填</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数字范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve">报错页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据库迁移</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子网掩码</t>
+  </si>
+  <si>
     <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">装饰器传用户信息</t>
   </si>
 </sst>
 </file>
@@ -415,24 +439,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -490,7 +502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,18 +535,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -560,66 +560,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFB7DEE8"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -628,10 +568,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -722,26 +662,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -880,27 +820,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="8"/>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -910,13 +854,13 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>23</v>
@@ -928,49 +872,53 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+    <row r="12" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
+      <c r="G12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="J12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
+      <c r="G13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
@@ -979,17 +927,17 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>16</v>
@@ -1006,14 +954,14 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>16</v>
@@ -1022,27 +970,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="8"/>
+      <c r="G16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -1051,19 +1001,19 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>16</v>
@@ -1080,16 +1030,16 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>16</v>
@@ -1105,7 +1055,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1122,19 +1072,19 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>66</v>
+      <c r="G20" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>23</v>
@@ -1153,19 +1103,19 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>16</v>
@@ -1181,12 +1131,12 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="11" t="s">
-        <v>72</v>
+      <c r="G22" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1201,12 +1151,12 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="11" t="s">
-        <v>74</v>
+      <c r="G23" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1221,12 +1171,12 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="11" t="s">
-        <v>76</v>
+      <c r="G24" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1241,19 +1191,19 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>16</v>
@@ -1267,19 +1217,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="I26" s="9"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1287,19 +1237,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="5"/>
@@ -1309,49 +1259,82 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="A1:J1"/>

--- a/10.09更新_CMDB_修改任务.xlsx
+++ b/10.09更新_CMDB_修改任务.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -217,18 +217,12 @@
     <t xml:space="preserve">弹窗</t>
   </si>
   <si>
-    <t xml:space="preserve">多选删除</t>
-  </si>
-  <si>
     <t xml:space="preserve">前端、后台</t>
   </si>
   <si>
     <t xml:space="preserve">类似子表管理的删除</t>
   </si>
   <si>
-    <t xml:space="preserve">递归删除检查</t>
-  </si>
-  <si>
     <t xml:space="preserve">数据库</t>
   </si>
   <si>
@@ -241,18 +235,12 @@
     <t xml:space="preserve">改</t>
   </si>
   <si>
-    <t xml:space="preserve">下一步</t>
-  </si>
-  <si>
     <t xml:space="preserve">templates/../editARecord.html</t>
   </si>
   <si>
     <t xml:space="preserve">改成保存</t>
   </si>
   <si>
-    <t xml:space="preserve">编辑部件</t>
-  </si>
-  <si>
     <t xml:space="preserve">加个按钮跳转</t>
   </si>
   <si>
@@ -355,7 +343,7 @@
     <t xml:space="preserve">日期选填</t>
   </si>
   <si>
-    <t xml:space="preserve">数字范围</t>
+    <t xml:space="preserve">title</t>
   </si>
   <si>
     <t xml:space="preserve">报错页面</t>
@@ -365,9 +353,6 @@
   </si>
   <si>
     <t xml:space="preserve">子网掩码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
   </si>
 </sst>
 </file>
@@ -377,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -437,6 +422,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,7 +493,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -527,14 +518,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -549,6 +532,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -570,8 +557,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -820,29 +807,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -872,48 +859,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -954,14 +941,14 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>16</v>
@@ -978,16 +965,16 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>16</v>
@@ -1001,19 +988,19 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>16</v>
@@ -1030,16 +1017,16 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>16</v>
@@ -1055,7 +1042,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1072,19 +1059,19 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>68</v>
+      <c r="G20" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>23</v>
@@ -1103,19 +1090,19 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>71</v>
+        <v>51</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>16</v>
@@ -1131,12 +1118,12 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="8" t="s">
-        <v>74</v>
+      <c r="G22" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1151,12 +1138,12 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="8" t="s">
-        <v>76</v>
+      <c r="G23" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1171,12 +1158,12 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="8" t="s">
-        <v>78</v>
+      <c r="G24" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1191,19 +1178,19 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>16</v>
@@ -1217,19 +1204,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1237,19 +1224,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="5"/>
@@ -1259,30 +1246,30 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="I28" s="8"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C29" s="11"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1290,48 +1277,49 @@
       <c r="B32" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/10.09更新_CMDB_修改任务.xlsx
+++ b/10.09更新_CMDB_修改任务.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -558,7 +558,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1294,9 +1294,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>92</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/10.09更新_CMDB_修改任务.xlsx
+++ b/10.09更新_CMDB_修改任务.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -337,22 +337,22 @@
     <t xml:space="preserve">唯一性</t>
   </si>
   <si>
+    <t xml:space="preserve">子网掩码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日期选填</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">报错页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据库迁移</t>
+  </si>
+  <si>
     <t xml:space="preserve">ip输入框</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日期选填</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">报错页面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据库迁移</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子网掩码</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -422,6 +422,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -493,7 +499,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -534,7 +540,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,7 +568,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1293,6 +1303,9 @@
       <c r="B34" s="0" t="s">
         <v>91</v>
       </c>
+      <c r="C34" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
@@ -1303,8 +1316,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>93</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,13 +1333,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="C39" s="9"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
